--- a/fhir/core/StructureDefinition-dk-core-condition.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-condition.xlsx
@@ -9,9 +9,6 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$85</definedName>
-  </definedNames>
 </workbook>
 </file>
 
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-30T22:11:32+02:00</t>
+    <t>2023-05-04T21:41:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/ipa/StructureDefinition/ipa-condition</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Condition</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1654,21 +1651,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2025,7 +2007,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2143,7 +2125,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>89</v>
       </c>
@@ -2263,7 +2245,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>97</v>
       </c>
@@ -2381,7 +2363,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>103</v>
       </c>
@@ -2501,7 +2483,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>109</v>
       </c>
@@ -2621,7 +2603,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>118</v>
       </c>
@@ -2741,7 +2723,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>126</v>
       </c>
@@ -2861,7 +2843,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>134</v>
       </c>
@@ -2977,7 +2959,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>142</v>
       </c>
@@ -3099,7 +3081,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>150</v>
       </c>
@@ -3219,7 +3201,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>155</v>
       </c>
@@ -3339,7 +3321,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>160</v>
       </c>
@@ -3461,7 +3443,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>167</v>
       </c>
@@ -3583,7 +3565,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>176</v>
       </c>
@@ -3602,7 +3584,7 @@
         <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>91</v>
@@ -3703,7 +3685,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>190</v>
       </c>
@@ -3722,7 +3704,7 @@
         <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>91</v>
@@ -3823,7 +3805,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>201</v>
       </c>
@@ -3842,7 +3824,7 @@
         <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>79</v>
@@ -3943,7 +3925,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>211</v>
       </c>
@@ -4063,7 +4045,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>221</v>
       </c>
@@ -4076,13 +4058,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
@@ -4183,7 +4165,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>235</v>
       </c>
@@ -4301,7 +4283,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>241</v>
       </c>
@@ -4421,7 +4403,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>246</v>
       </c>
@@ -4543,7 +4525,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>257</v>
       </c>
@@ -4667,7 +4649,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>260</v>
       </c>
@@ -4785,7 +4767,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>262</v>
       </c>
@@ -4905,7 +4887,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>264</v>
       </c>
@@ -5027,7 +5009,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>274</v>
       </c>
@@ -5147,7 +5129,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>282</v>
       </c>
@@ -5267,7 +5249,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>290</v>
       </c>
@@ -5387,7 +5369,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>298</v>
       </c>
@@ -5509,7 +5491,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>308</v>
       </c>
@@ -5631,7 +5613,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>311</v>
       </c>
@@ -5749,7 +5731,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>312</v>
       </c>
@@ -5869,7 +5851,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>313</v>
       </c>
@@ -5991,7 +5973,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>315</v>
       </c>
@@ -6111,7 +6093,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>316</v>
       </c>
@@ -6231,7 +6213,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>317</v>
       </c>
@@ -6351,7 +6333,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>318</v>
       </c>
@@ -6473,7 +6455,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>319</v>
       </c>
@@ -6597,7 +6579,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>322</v>
       </c>
@@ -6715,7 +6697,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>323</v>
       </c>
@@ -6835,7 +6817,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>324</v>
       </c>
@@ -6957,7 +6939,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>326</v>
       </c>
@@ -7077,7 +7059,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>327</v>
       </c>
@@ -7197,7 +7179,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>328</v>
       </c>
@@ -7317,7 +7299,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>329</v>
       </c>
@@ -7439,7 +7421,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>330</v>
       </c>
@@ -7563,7 +7545,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>333</v>
       </c>
@@ -7681,7 +7663,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>334</v>
       </c>
@@ -7801,7 +7783,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>335</v>
       </c>
@@ -7923,7 +7905,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>337</v>
       </c>
@@ -8043,7 +8025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>338</v>
       </c>
@@ -8163,7 +8145,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>339</v>
       </c>
@@ -8283,7 +8265,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>340</v>
       </c>
@@ -8405,7 +8387,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>341</v>
       </c>
@@ -8529,7 +8511,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>344</v>
       </c>
@@ -8647,7 +8629,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>345</v>
       </c>
@@ -8767,7 +8749,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>346</v>
       </c>
@@ -8889,7 +8871,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>348</v>
       </c>
@@ -9009,7 +8991,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>349</v>
       </c>
@@ -9129,7 +9111,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>350</v>
       </c>
@@ -9249,7 +9231,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>351</v>
       </c>
@@ -9371,7 +9353,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>352</v>
       </c>
@@ -9493,7 +9475,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>360</v>
       </c>
@@ -9613,7 +9595,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>369</v>
       </c>
@@ -9632,7 +9614,7 @@
         <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>79</v>
@@ -9733,7 +9715,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>379</v>
       </c>
@@ -9853,7 +9835,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>388</v>
       </c>
@@ -9973,7 +9955,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>397</v>
       </c>
@@ -10093,7 +10075,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>404</v>
       </c>
@@ -10211,7 +10193,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>411</v>
       </c>
@@ -10329,7 +10311,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>417</v>
       </c>
@@ -10447,7 +10429,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>424</v>
       </c>
@@ -10565,7 +10547,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>430</v>
       </c>
@@ -10683,7 +10665,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>431</v>
       </c>
@@ -10803,7 +10785,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>432</v>
       </c>
@@ -10925,7 +10907,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>437</v>
       </c>
@@ -11043,7 +11025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>444</v>
       </c>
@@ -11161,7 +11143,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>449</v>
       </c>
@@ -11279,7 +11261,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>455</v>
       </c>
@@ -11399,7 +11381,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>461</v>
       </c>
@@ -11517,7 +11499,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>462</v>
       </c>
@@ -11637,7 +11619,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>463</v>
       </c>
@@ -11759,7 +11741,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>464</v>
       </c>
@@ -11877,7 +11859,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>473</v>
       </c>
@@ -11995,7 +11977,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>477</v>
       </c>
@@ -12114,24 +12096,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP85">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI84">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/fhir/core/StructureDefinition-dk-core-condition.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:41:07+02:00</t>
+    <t>2023-05-05T01:43:00+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-dk-core-condition.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3275" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3275" uniqueCount="485">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T01:43:00+02:00</t>
+    <t>2023-12-01T14:04:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -269,6 +269,10 @@
   </si>
   <si>
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.</t>
+  </si>
+  <si>
+    <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
+con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1644,10 +1648,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2104,19 +2108,19 @@
         <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>79</v>
@@ -2127,10 +2131,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2141,7 +2145,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>79</v>
@@ -2150,19 +2154,19 @@
         <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2212,13 +2216,13 @@
         <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>79</v>
@@ -2247,10 +2251,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2261,7 +2265,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>79</v>
@@ -2270,16 +2274,16 @@
         <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2330,19 +2334,19 @@
         <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>79</v>
@@ -2365,10 +2369,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2379,28 +2383,28 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2450,19 +2454,19 @@
         <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>79</v>
@@ -2485,10 +2489,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2499,7 +2503,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>79</v>
@@ -2511,16 +2515,16 @@
         <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2546,13 +2550,13 @@
         <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>79</v>
@@ -2570,19 +2574,19 @@
         <v>79</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>79</v>
@@ -2605,21 +2609,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -2631,16 +2635,16 @@
         <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2690,19 +2694,19 @@
         <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>79</v>
@@ -2714,7 +2718,7 @@
         <v>79</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>79</v>
@@ -2725,14 +2729,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2751,16 +2755,16 @@
         <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2810,7 +2814,7 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -2834,7 +2838,7 @@
         <v>79</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>79</v>
@@ -2845,10 +2849,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2871,13 +2875,13 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2916,17 +2920,17 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -2938,7 +2942,7 @@
         <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -2961,13 +2965,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>79</v>
@@ -2977,7 +2981,7 @@
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>79</v>
@@ -2989,16 +2993,16 @@
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3048,7 +3052,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3057,10 +3061,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -3072,7 +3076,7 @@
         <v>79</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>79</v>
@@ -3083,13 +3087,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>79</v>
@@ -3099,7 +3103,7 @@
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -3111,13 +3115,13 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3168,7 +3172,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3177,10 +3181,10 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
@@ -3203,13 +3207,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>79</v>
@@ -3219,7 +3223,7 @@
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3231,13 +3235,13 @@
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3288,7 +3292,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3297,10 +3301,10 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>79</v>
@@ -3323,14 +3327,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3343,25 +3347,25 @@
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>79</v>
@@ -3410,7 +3414,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3422,7 +3426,7 @@
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
@@ -3434,7 +3438,7 @@
         <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>79</v>
@@ -3445,10 +3449,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3468,22 +3472,22 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>79</v>
@@ -3532,7 +3536,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3544,10 +3548,10 @@
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>79</v>
@@ -3556,10 +3560,10 @@
         <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>79</v>
@@ -3567,10 +3571,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3581,28 +3585,28 @@
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3628,13 +3632,13 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -3652,34 +3656,34 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>79</v>
@@ -3687,10 +3691,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3701,28 +3705,28 @@
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3748,13 +3752,13 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3772,45 +3776,45 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="AP16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3833,16 +3837,16 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3868,13 +3872,13 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -3892,7 +3896,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3904,22 +3908,22 @@
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>79</v>
@@ -3927,10 +3931,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3941,7 +3945,7 @@
         <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -3953,16 +3957,16 @@
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3988,13 +3992,13 @@
         <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
@@ -4012,56 +4016,56 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -4070,20 +4074,20 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -4108,13 +4112,13 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
@@ -4132,45 +4136,45 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4181,7 +4185,7 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4193,13 +4197,13 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4250,13 +4254,13 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
@@ -4274,7 +4278,7 @@
         <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -4285,14 +4289,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4311,16 +4315,16 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4358,19 +4362,19 @@
         <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4382,7 +4386,7 @@
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
@@ -4394,7 +4398,7 @@
         <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4405,10 +4409,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4428,22 +4432,22 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4480,19 +4484,19 @@
         <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4504,7 +4508,7 @@
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
@@ -4513,10 +4517,10 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4527,13 +4531,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>79</v>
@@ -4543,7 +4547,7 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4552,22 +4556,22 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -4616,7 +4620,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4628,7 +4632,7 @@
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
@@ -4637,10 +4641,10 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4651,10 +4655,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4665,7 +4669,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4677,13 +4681,13 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4734,13 +4738,13 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
@@ -4758,7 +4762,7 @@
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -4769,14 +4773,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4795,16 +4799,16 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4842,19 +4846,19 @@
         <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4866,7 +4870,7 @@
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
@@ -4878,7 +4882,7 @@
         <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -4889,10 +4893,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4900,10 +4904,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -4912,22 +4916,22 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4937,7 +4941,7 @@
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -4976,19 +4980,19 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
@@ -4997,10 +5001,10 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -5011,10 +5015,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5025,7 +5029,7 @@
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5034,19 +5038,19 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5096,19 +5100,19 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
@@ -5117,10 +5121,10 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -5131,10 +5135,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5145,7 +5149,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5154,20 +5158,20 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5216,19 +5220,19 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
@@ -5237,10 +5241,10 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5251,10 +5255,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5265,7 +5269,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -5274,20 +5278,20 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5336,19 +5340,19 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
@@ -5357,10 +5361,10 @@
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5371,10 +5375,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5385,7 +5389,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5394,22 +5398,22 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5458,19 +5462,19 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
@@ -5479,10 +5483,10 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5493,13 +5497,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>79</v>
@@ -5509,7 +5513,7 @@
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -5518,22 +5522,22 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -5558,11 +5562,11 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
@@ -5580,7 +5584,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5592,7 +5596,7 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
@@ -5601,10 +5605,10 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5615,10 +5619,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5629,7 +5633,7 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5641,13 +5645,13 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5698,13 +5702,13 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
@@ -5722,7 +5726,7 @@
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5733,14 +5737,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5759,16 +5763,16 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5806,19 +5810,19 @@
         <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5830,7 +5834,7 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
@@ -5842,7 +5846,7 @@
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -5853,10 +5857,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5864,10 +5868,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5876,22 +5880,22 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5901,7 +5905,7 @@
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -5940,19 +5944,19 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -5961,10 +5965,10 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -5975,10 +5979,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5989,7 +5993,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5998,19 +6002,19 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6060,19 +6064,19 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
@@ -6081,10 +6085,10 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -6095,10 +6099,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6109,7 +6113,7 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6118,20 +6122,20 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -6180,19 +6184,19 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
@@ -6201,10 +6205,10 @@
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -6215,10 +6219,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6229,7 +6233,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6238,20 +6242,20 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6300,19 +6304,19 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -6321,10 +6325,10 @@
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6335,10 +6339,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6349,7 +6353,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6358,22 +6362,22 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6422,19 +6426,19 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
@@ -6443,10 +6447,10 @@
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6457,13 +6461,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>79</v>
@@ -6473,7 +6477,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6482,22 +6486,22 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6546,7 +6550,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6558,7 +6562,7 @@
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
@@ -6567,10 +6571,10 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6581,10 +6585,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6595,7 +6599,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6607,13 +6611,13 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6664,13 +6668,13 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
@@ -6688,7 +6692,7 @@
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -6699,14 +6703,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6725,16 +6729,16 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6772,19 +6776,19 @@
         <v>79</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6796,7 +6800,7 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -6808,7 +6812,7 @@
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6819,10 +6823,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6830,10 +6834,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -6842,22 +6846,22 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6867,7 +6871,7 @@
         <v>79</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>79</v>
@@ -6906,19 +6910,19 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
@@ -6927,10 +6931,10 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -6941,10 +6945,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6955,7 +6959,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6964,19 +6968,19 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7026,19 +7030,19 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
@@ -7047,10 +7051,10 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7061,10 +7065,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7075,7 +7079,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7084,20 +7088,20 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -7146,19 +7150,19 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
@@ -7167,10 +7171,10 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7181,10 +7185,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7195,7 +7199,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7204,20 +7208,20 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7266,19 +7270,19 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -7287,10 +7291,10 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7301,10 +7305,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7315,7 +7319,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7324,22 +7328,22 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7388,19 +7392,19 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -7409,10 +7413,10 @@
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7423,13 +7427,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>79</v>
@@ -7439,7 +7443,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7448,22 +7452,22 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7512,7 +7516,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7524,7 +7528,7 @@
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
@@ -7533,10 +7537,10 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7547,10 +7551,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7561,7 +7565,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7573,13 +7577,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7630,13 +7634,13 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
@@ -7654,7 +7658,7 @@
         <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7665,14 +7669,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7691,16 +7695,16 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7738,19 +7742,19 @@
         <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7762,7 +7766,7 @@
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
@@ -7774,7 +7778,7 @@
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -7785,10 +7789,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7796,10 +7800,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7808,22 +7812,22 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -7833,7 +7837,7 @@
         <v>79</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>79</v>
@@ -7872,19 +7876,19 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
@@ -7893,10 +7897,10 @@
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -7907,10 +7911,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7921,7 +7925,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7930,19 +7934,19 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7992,19 +7996,19 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
@@ -8013,10 +8017,10 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -8027,10 +8031,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8041,7 +8045,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -8050,20 +8054,20 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8112,19 +8116,19 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
@@ -8133,10 +8137,10 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8147,10 +8151,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8161,7 +8165,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8170,20 +8174,20 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -8232,19 +8236,19 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
@@ -8253,10 +8257,10 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8267,10 +8271,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8281,7 +8285,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8290,22 +8294,22 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8354,19 +8358,19 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8375,10 +8379,10 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8389,13 +8393,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>79</v>
@@ -8405,7 +8409,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8414,22 +8418,22 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8478,7 +8482,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8490,7 +8494,7 @@
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -8499,10 +8503,10 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8513,10 +8517,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8527,7 +8531,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8539,13 +8543,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8596,13 +8600,13 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
@@ -8620,7 +8624,7 @@
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>79</v>
@@ -8631,14 +8635,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8657,16 +8661,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8704,19 +8708,19 @@
         <v>79</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8728,7 +8732,7 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -8740,7 +8744,7 @@
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>79</v>
@@ -8751,10 +8755,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8762,10 +8766,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8774,22 +8778,22 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -8799,7 +8803,7 @@
         <v>79</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>79</v>
@@ -8838,19 +8842,19 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -8859,10 +8863,10 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>79</v>
@@ -8873,10 +8877,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8887,7 +8891,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8896,19 +8900,19 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8958,19 +8962,19 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -8979,10 +8983,10 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>79</v>
@@ -8993,10 +8997,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9007,7 +9011,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9016,20 +9020,20 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -9078,19 +9082,19 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
@@ -9099,10 +9103,10 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -9113,10 +9117,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9127,7 +9131,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9136,20 +9140,20 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -9198,19 +9202,19 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
@@ -9219,10 +9223,10 @@
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -9233,10 +9237,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9247,7 +9251,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9256,22 +9260,22 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9320,19 +9324,19 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
@@ -9341,10 +9345,10 @@
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>79</v>
@@ -9355,10 +9359,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9369,7 +9373,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9378,22 +9382,22 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9442,19 +9446,19 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
@@ -9463,10 +9467,10 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9477,10 +9481,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9500,19 +9504,19 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9538,13 +9542,13 @@
         <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
@@ -9562,7 +9566,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9574,44 +9578,44 @@
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9620,20 +9624,20 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -9682,34 +9686,34 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>79</v>
@@ -9717,10 +9721,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9731,7 +9735,7 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9740,19 +9744,19 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9802,34 +9806,34 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>79</v>
@@ -9837,10 +9841,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9851,7 +9855,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9860,19 +9864,19 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9922,34 +9926,34 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>79</v>
@@ -9957,10 +9961,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9971,7 +9975,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9983,16 +9987,16 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10042,19 +10046,19 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -10066,10 +10070,10 @@
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>79</v>
@@ -10077,10 +10081,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10091,7 +10095,7 @@
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10100,16 +10104,16 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10160,19 +10164,19 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
@@ -10181,13 +10185,13 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>79</v>
@@ -10195,10 +10199,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10209,7 +10213,7 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10218,16 +10222,16 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10278,19 +10282,19 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
@@ -10302,10 +10306,10 @@
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>79</v>
@@ -10313,10 +10317,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10327,7 +10331,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10336,16 +10340,16 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10396,19 +10400,19 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
@@ -10417,13 +10421,13 @@
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>79</v>
@@ -10431,10 +10435,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10457,13 +10461,13 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10514,7 +10518,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10526,7 +10530,7 @@
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
@@ -10538,7 +10542,7 @@
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10549,10 +10553,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10563,7 +10567,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10575,13 +10579,13 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10632,13 +10636,13 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
@@ -10656,7 +10660,7 @@
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -10667,14 +10671,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10693,16 +10697,16 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10752,7 +10756,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10764,7 +10768,7 @@
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
@@ -10776,7 +10780,7 @@
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -10787,14 +10791,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10807,25 +10811,25 @@
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>79</v>
@@ -10874,7 +10878,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -10886,7 +10890,7 @@
         <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
@@ -10898,7 +10902,7 @@
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>79</v>
@@ -10909,10 +10913,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10923,7 +10927,7 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10935,13 +10939,13 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10968,13 +10972,13 @@
         <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>79</v>
@@ -10992,31 +10996,31 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>79</v>
@@ -11027,10 +11031,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11053,13 +11057,13 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11110,7 +11114,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11119,10 +11123,10 @@
         <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
@@ -11134,7 +11138,7 @@
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -11145,10 +11149,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11159,7 +11163,7 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11171,13 +11175,13 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11204,13 +11208,13 @@
         <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>79</v>
@@ -11228,19 +11232,19 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
@@ -11252,7 +11256,7 @@
         <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11263,10 +11267,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11289,16 +11293,16 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11348,7 +11352,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11360,7 +11364,7 @@
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
@@ -11372,7 +11376,7 @@
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11383,10 +11387,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11397,7 +11401,7 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11409,13 +11413,13 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11466,13 +11470,13 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>79</v>
@@ -11490,7 +11494,7 @@
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11501,14 +11505,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11527,16 +11531,16 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11586,7 +11590,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11598,7 +11602,7 @@
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
@@ -11610,7 +11614,7 @@
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -11621,14 +11625,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11641,25 +11645,25 @@
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -11708,7 +11712,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11720,7 +11724,7 @@
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
@@ -11732,7 +11736,7 @@
         <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
@@ -11743,10 +11747,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11766,16 +11770,16 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11802,13 +11806,13 @@
         <v>79</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>79</v>
@@ -11826,7 +11830,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -11835,25 +11839,25 @@
         <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>79</v>
@@ -11861,10 +11865,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11884,16 +11888,16 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11944,7 +11948,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -11953,10 +11957,10 @@
         <v>81</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
@@ -11968,10 +11972,10 @@
         <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>79</v>
@@ -11979,10 +11983,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12005,13 +12009,13 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12062,7 +12066,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12074,19 +12078,19 @@
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>79</v>

--- a/fhir/core/StructureDefinition-dk-core-condition.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-01T14:04:08+01:00</t>
+    <t>2024-01-08T21:51:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-dk-core-condition.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T21:51:35+01:00</t>
+    <t>2024-05-06T15:28:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -477,27 +477,27 @@
     <t>Although a condition may be caused by a substance, this is not intended to be used to record allergies/adverse reactions to substances.</t>
   </si>
   <si>
+    <t>.typeCode</t>
+  </si>
+  <si>
+    <t>Condition.extension:conditionLastAssertedDate</t>
+  </si>
+  <si>
+    <t>conditionLastAssertedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.dk/fhir/core/StructureDefinition/ConditionLastAssertedDate}
+</t>
+  </si>
+  <si>
+    <t>Last date a condition was confirmed valid in its current state</t>
+  </si>
+  <si>
+    <t>Extension for the last date a Condition-instance was confirmed valid in its current state. E.g. with its current clinical- and verification status, stage and severity. Typically the last performed follow-up</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>.typeCode</t>
-  </si>
-  <si>
-    <t>Condition.extension:conditionLastAssertedDate</t>
-  </si>
-  <si>
-    <t>conditionLastAssertedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.dk/fhir/core/StructureDefinition/ConditionLastAssertedDate}
-</t>
-  </si>
-  <si>
-    <t>Last date a condition was confirmed valid in its current state</t>
-  </si>
-  <si>
-    <t>Extension for the last date a Condition-instance was confirmed valid in its current state. E.g. with its current clinical- and verification status, stage and severity. Typically the last performed follow-up</t>
   </si>
   <si>
     <t>Condition.extension:notFollowedAnymore</t>
@@ -1301,7 +1301,7 @@
     <t>Condition.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.dk/fhir/core/StructureDefinition/dk-core-practitioner|PractitionerRole|http://hl7.dk/fhir/core/StructureDefinition/dk-core-patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.dk/fhir/core/StructureDefinition/dk-core-practitioner|PractitionerRole|http://hl7.dk/fhir/core/StructureDefinition/dk-core-patient|http://hl7.dk/fhir/core/StructureDefinition/dk-core-related-person)
 </t>
   </si>
   <si>
@@ -1850,7 +1850,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="151.3671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="199.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3061,7 +3061,7 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>142</v>
@@ -3076,7 +3076,7 @@
         <v>79</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>79</v>
@@ -3087,13 +3087,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>135</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>79</v>
@@ -3115,13 +3115,13 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3181,7 +3181,7 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>142</v>
@@ -3301,7 +3301,7 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>142</v>

--- a/fhir/core/StructureDefinition-dk-core-condition.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T15:28:33+02:00</t>
+    <t>2024-12-11T09:54:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-dk-core-condition.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T09:54:35+01:00</t>
+    <t>2024-12-11T10:20:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-dk-core-condition.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T10:20:02+01:00</t>
+    <t>2025-02-01T19:23:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1301,7 +1301,7 @@
     <t>Condition.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.dk/fhir/core/StructureDefinition/dk-core-practitioner|PractitionerRole|http://hl7.dk/fhir/core/StructureDefinition/dk-core-patient|http://hl7.dk/fhir/core/StructureDefinition/dk-core-related-person)
+    <t xml:space="preserve">Reference(http://hl7.dk/fhir/core/StructureDefinition/dk-core-practitioner|http://hl7.dk/fhir/core/StructureDefinition/dk-core-practitioner-role|http://hl7.dk/fhir/core/StructureDefinition/dk-core-patient|http://hl7.dk/fhir/core/StructureDefinition/dk-core-related-person)
 </t>
   </si>
   <si>
@@ -1320,7 +1320,7 @@
     <t>Condition.asserter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.dk/fhir/core/StructureDefinition/dk-core-practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(http://hl7.dk/fhir/core/StructureDefinition/dk-core-practitioner|http://hl7.dk/fhir/core/StructureDefinition/dk-core-practitioner-role)
 </t>
   </si>
   <si>
@@ -1850,7 +1850,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="199.7578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="248.1484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/fhir/core/StructureDefinition-dk-core-condition.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3275" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3275" uniqueCount="486">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -373,7 +373,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -477,6 +477,10 @@
     <t>Although a condition may be caused by a substance, this is not intended to be used to record allergies/adverse reactions to substances.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>.typeCode</t>
   </si>
   <si>
@@ -496,10 +500,6 @@
     <t>Extension for the last date a Condition-instance was confirmed valid in its current state. E.g. with its current clinical- and verification status, stage and severity. Typically the last performed follow-up</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Condition.extension:notFollowedAnymore</t>
   </si>
   <si>
@@ -663,7 +663,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-category</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-category|4.0.1</t>
   </si>
   <si>
     <t>&lt; 404684003 |Clinical finding|</t>
@@ -690,7 +690,7 @@
     <t>Coding of the severity with a terminology is preferred, where possible.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-severity|4.0.1</t>
   </si>
   <si>
     <t>&lt; 272141005 |Severities|</t>
@@ -730,7 +730,7 @@
     <t>Identification of the condition or diagnosis.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -992,6 +992,9 @@
     <t>SNOMED CT condition code</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+  </si>
+  <si>
     <t>Condition.code.coding:SCTConditionCode.id</t>
   </si>
   <si>
@@ -1154,7 +1157,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 442083009  |Anatomical or acquired body structure|</t>
@@ -1201,7 +1204,7 @@
     <t>Condition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1394,7 +1397,7 @@
     <t>Codes describing condition stages (e.g. Cancer stages).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-stage</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-stage|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">con-1
@@ -1407,7 +1410,7 @@
     <t>Condition.stage.assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ClinicalImpression|DiagnosticReport|Observation)
+    <t xml:space="preserve">Reference(ClinicalImpression|4.0.1|DiagnosticReport|4.0.1|Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -1432,7 +1435,7 @@
     <t>Codes describing the kind of condition staging (e.g. clinical or pathological).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-stage-type</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-stage-type|4.0.1</t>
   </si>
   <si>
     <t>./inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="stage type"]</t>
@@ -1478,7 +1481,7 @@
     <t>Codes that describe the manifestation or symptoms of a condition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom</t>
+    <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">con-2
@@ -1497,7 +1500,7 @@
     <t>Condition.evidence.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1840,17 +1843,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.35546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.87890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.4375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.07421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="248.1484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="214.0546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1859,28 +1862,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="83.078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="88.2578125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.6640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.17578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="76.1328125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.0234375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="66.34375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="212.8046875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="57.23046875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="183.56640625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="33.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3061,7 +3064,7 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>142</v>
@@ -3076,7 +3079,7 @@
         <v>79</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>79</v>
@@ -3087,13 +3090,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>135</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>79</v>
@@ -3115,13 +3118,13 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3181,7 +3184,7 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>142</v>
@@ -3301,7 +3304,7 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>142</v>
@@ -5566,7 +5569,7 @@
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>229</v>
+        <v>312</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
@@ -5619,7 +5622,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>262</v>
@@ -5737,7 +5740,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>264</v>
@@ -5857,7 +5860,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>266</v>
@@ -5905,7 +5908,7 @@
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -5979,7 +5982,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>276</v>
@@ -6099,7 +6102,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>284</v>
@@ -6219,7 +6222,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>292</v>
@@ -6339,7 +6342,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>300</v>
@@ -6461,13 +6464,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>247</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>79</v>
@@ -6492,7 +6495,7 @@
         <v>248</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>250</v>
@@ -6585,7 +6588,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>262</v>
@@ -6703,7 +6706,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>264</v>
@@ -6823,7 +6826,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>266</v>
@@ -6871,7 +6874,7 @@
         <v>79</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>79</v>
@@ -6945,7 +6948,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>276</v>
@@ -7065,7 +7068,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>284</v>
@@ -7185,7 +7188,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>292</v>
@@ -7305,7 +7308,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>300</v>
@@ -7427,13 +7430,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>247</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>79</v>
@@ -7458,7 +7461,7 @@
         <v>248</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>250</v>
@@ -7551,7 +7554,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>262</v>
@@ -7669,7 +7672,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>264</v>
@@ -7789,7 +7792,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>266</v>
@@ -7837,7 +7840,7 @@
         <v>79</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>79</v>
@@ -7911,7 +7914,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>276</v>
@@ -8031,7 +8034,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>284</v>
@@ -8151,7 +8154,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>292</v>
@@ -8271,7 +8274,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>300</v>
@@ -8393,13 +8396,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>247</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>79</v>
@@ -8424,7 +8427,7 @@
         <v>248</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>250</v>
@@ -8517,7 +8520,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>262</v>
@@ -8635,7 +8638,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>264</v>
@@ -8755,7 +8758,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>266</v>
@@ -8803,7 +8806,7 @@
         <v>79</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>79</v>
@@ -8877,7 +8880,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>276</v>
@@ -8997,7 +9000,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>284</v>
@@ -9117,7 +9120,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>292</v>
@@ -9237,7 +9240,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>300</v>
@@ -9359,10 +9362,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9388,16 +9391,16 @@
         <v>237</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9446,7 +9449,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9467,10 +9470,10 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9481,10 +9484,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9510,13 +9513,13 @@
         <v>178</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9545,10 +9548,10 @@
         <v>227</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
@@ -9566,7 +9569,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9584,31 +9587,31 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9627,17 +9630,17 @@
         <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -9686,7 +9689,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>91</v>
@@ -9701,19 +9704,19 @@
         <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>79</v>
@@ -9721,10 +9724,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9747,16 +9750,16 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9806,7 +9809,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9821,19 +9824,19 @@
         <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>79</v>
@@ -9841,10 +9844,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9867,16 +9870,16 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9926,7 +9929,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9941,19 +9944,19 @@
         <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>79</v>
@@ -9961,10 +9964,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9987,16 +9990,16 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10046,7 +10049,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10055,7 +10058,7 @@
         <v>91</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>103</v>
@@ -10070,10 +10073,10 @@
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>79</v>
@@ -10081,10 +10084,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10107,13 +10110,13 @@
         <v>92</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10164,7 +10167,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10185,13 +10188,13 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>79</v>
@@ -10199,10 +10202,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10225,13 +10228,13 @@
         <v>92</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10282,7 +10285,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10306,10 +10309,10 @@
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>79</v>
@@ -10317,10 +10320,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10343,13 +10346,13 @@
         <v>92</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10400,7 +10403,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10421,13 +10424,13 @@
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>79</v>
@@ -10435,10 +10438,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10461,13 +10464,13 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10518,7 +10521,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10530,7 +10533,7 @@
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
@@ -10542,7 +10545,7 @@
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10553,10 +10556,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10671,10 +10674,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10791,14 +10794,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10820,10 +10823,10 @@
         <v>136</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>165</v>
@@ -10878,7 +10881,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -10913,10 +10916,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10942,10 +10945,10 @@
         <v>178</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10975,10 +10978,10 @@
         <v>227</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>79</v>
@@ -10996,7 +10999,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11005,7 +11008,7 @@
         <v>91</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>103</v>
@@ -11014,7 +11017,7 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>188</v>
@@ -11031,10 +11034,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11057,13 +11060,13 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11114,7 +11117,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11123,7 +11126,7 @@
         <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>103</v>
@@ -11138,7 +11141,7 @@
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -11149,10 +11152,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11178,10 +11181,10 @@
         <v>178</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11211,10 +11214,10 @@
         <v>227</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>79</v>
@@ -11232,7 +11235,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11256,7 +11259,7 @@
         <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11267,10 +11270,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11293,16 +11296,16 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11352,7 +11355,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11364,7 +11367,7 @@
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
@@ -11376,7 +11379,7 @@
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11387,10 +11390,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11505,10 +11508,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11625,14 +11628,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11654,10 +11657,10 @@
         <v>136</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>165</v>
@@ -11712,7 +11715,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11747,10 +11750,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11776,10 +11779,10 @@
         <v>178</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11809,10 +11812,10 @@
         <v>227</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>79</v>
@@ -11830,7 +11833,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -11839,13 +11842,13 @@
         <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>208</v>
@@ -11854,10 +11857,10 @@
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>79</v>
@@ -11865,10 +11868,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11891,13 +11894,13 @@
         <v>92</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11948,7 +11951,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -11957,7 +11960,7 @@
         <v>81</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>103</v>
@@ -11972,10 +11975,10 @@
         <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>79</v>
@@ -11983,10 +11986,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12009,13 +12012,13 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12066,7 +12069,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12081,16 +12084,16 @@
         <v>103</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>79</v>
